--- a/OilData.xlsx
+++ b/OilData.xlsx
@@ -1538,7 +1538,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1972,6 +1972,10 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5024,10 +5028,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2273B5C9-9AFA-4129-931D-F16E7716CF8B}">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2273B5C9-9AFA-4129-931D-F16E7716CF8B}">
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
@@ -5047,7 +5051,7 @@
     <col min="13" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
       <c r="A1" s="36" t="s">
         <v>142</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
@@ -5099,10 +5103,10 @@
         <v>451</v>
       </c>
       <c r="E2" s="34">
-        <v>45306.666666666664</v>
+        <v>45306.6666666667</v>
       </c>
       <c r="F2" s="34">
-        <v>45371.666666666664</v>
+        <v>45371.6666666667</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>155</v>
@@ -5123,7 +5127,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" s="26" t="s">
         <v>381</v>
       </c>
@@ -5137,10 +5141,10 @@
         <v>452</v>
       </c>
       <c r="E3" s="24">
-        <v>45418.708333333336</v>
+        <v>45418.7083333333</v>
       </c>
       <c r="F3" s="24">
-        <v>45555.583333333336</v>
+        <v>45555.5833333333</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>453</v>
@@ -5161,7 +5165,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" s="26" t="s">
         <v>346</v>
       </c>
@@ -5175,10 +5179,10 @@
         <v>456</v>
       </c>
       <c r="E4" s="24">
-        <v>45331.583333333336</v>
+        <v>45331.5833333333</v>
       </c>
       <c r="F4" s="24">
-        <v>45518.416666666664</v>
+        <v>45518.4166666667</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>457</v>
@@ -5199,7 +5203,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" s="26" t="s">
         <v>371</v>
       </c>
@@ -5213,10 +5217,10 @@
         <v>461</v>
       </c>
       <c r="E5" s="24">
-        <v>45398.541666666664</v>
+        <v>45398.5416666667</v>
       </c>
       <c r="F5" s="24">
-        <v>45465.666666666664</v>
+        <v>45465.6666666667</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>443</v>
@@ -5237,7 +5241,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="26" t="s">
         <v>356</v>
       </c>
@@ -5251,10 +5255,10 @@
         <v>464</v>
       </c>
       <c r="E6" s="24">
-        <v>45366.708333333336</v>
+        <v>45366.7083333333</v>
       </c>
       <c r="F6" s="24">
-        <v>45491.583333333336</v>
+        <v>45491.5833333333</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>465</v>
@@ -5275,7 +5279,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" s="26" t="s">
         <v>387</v>
       </c>
@@ -5289,10 +5293,10 @@
         <v>469</v>
       </c>
       <c r="E7" s="24">
-        <v>45435.666666666664</v>
+        <v>45435.6666666667</v>
       </c>
       <c r="F7" s="24">
-        <v>45543.333333333336</v>
+        <v>45543.3333333333</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>470</v>
@@ -5313,7 +5317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" s="26" t="s">
         <v>369</v>
       </c>
@@ -5327,10 +5331,10 @@
         <v>472</v>
       </c>
       <c r="E8" s="24">
-        <v>45390.416666666664</v>
+        <v>45390.4166666667</v>
       </c>
       <c r="F8" s="24">
-        <v>45470.416666666664</v>
+        <v>45470.4166666667</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>353</v>
@@ -5351,7 +5355,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9" s="26" t="s">
         <v>358</v>
       </c>
@@ -5365,10 +5369,10 @@
         <v>475</v>
       </c>
       <c r="E9" s="24">
-        <v>45376.541666666664</v>
+        <v>45376.5416666667</v>
       </c>
       <c r="F9" s="24">
-        <v>45482.708333333336</v>
+        <v>45482.7083333333</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>476</v>
@@ -5389,7 +5393,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10" s="26" t="s">
         <v>338</v>
       </c>
@@ -5403,10 +5407,10 @@
         <v>478</v>
       </c>
       <c r="E10" s="24">
-        <v>45313.416666666664</v>
+        <v>45313.4166666667</v>
       </c>
       <c r="F10" s="24">
-        <v>45577.708333333336</v>
+        <v>45577.7083333333</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>479</v>
@@ -5427,7 +5431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
       <c r="A11" s="26" t="s">
         <v>70</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>45423.625</v>
       </c>
       <c r="F11" s="24">
-        <v>45553.333333333336</v>
+        <v>45553.3333333333</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>182</v>
@@ -5465,7 +5469,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
@@ -5503,7 +5507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
       <c r="A13" s="26" t="s">
         <v>57</v>
       </c>
@@ -5517,10 +5521,10 @@
         <v>483</v>
       </c>
       <c r="E13" s="24">
-        <v>45407.708333333336</v>
+        <v>45407.7083333333</v>
       </c>
       <c r="F13" s="24">
-        <v>45458.541666666664</v>
+        <v>45458.5416666667</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>176</v>
@@ -5541,7 +5545,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
       <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
@@ -5555,10 +5559,10 @@
         <v>484</v>
       </c>
       <c r="E14" s="24">
-        <v>45309.666666666664</v>
+        <v>45309.6666666667</v>
       </c>
       <c r="F14" s="24">
-        <v>45507.458333333336</v>
+        <v>45507.4583333333</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>172</v>
@@ -5579,7 +5583,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
       <c r="A15" s="26" t="s">
         <v>41</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>485</v>
       </c>
       <c r="E15" s="24">
-        <v>45363.458333333336</v>
+        <v>45363.4583333333</v>
       </c>
       <c r="F15" s="24">
         <v>45495.625</v>
@@ -5617,7 +5621,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
       <c r="A16" s="26" t="s">
         <v>63</v>
       </c>
@@ -5634,7 +5638,7 @@
         <v>45413.625</v>
       </c>
       <c r="F16" s="24">
-        <v>45448.416666666664</v>
+        <v>45448.4166666667</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>40</v>
@@ -5655,7 +5659,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
       <c r="A17" s="26" t="s">
         <v>32</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>487</v>
       </c>
       <c r="E17" s="24">
-        <v>45350.458333333336</v>
+        <v>45350.4583333333</v>
       </c>
       <c r="F17" s="24">
         <v>45392.5</v>
@@ -5693,7 +5697,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
       <c r="A18" s="26" t="s">
         <v>361</v>
       </c>
@@ -5707,10 +5711,10 @@
         <v>488</v>
       </c>
       <c r="E18" s="24">
-        <v>45381.333333333336</v>
+        <v>45381.3333333333</v>
       </c>
       <c r="F18" s="24">
-        <v>45478.458333333336</v>
+        <v>45478.4583333333</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>489</v>
@@ -5731,7 +5735,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
       <c r="A19" s="26" t="s">
         <v>342</v>
       </c>
@@ -5745,10 +5749,10 @@
         <v>491</v>
       </c>
       <c r="E19" s="24">
-        <v>45327.598090277781</v>
+        <v>45327.5980902778</v>
       </c>
       <c r="F19" s="24">
-        <v>45640.574479166666</v>
+        <v>45640.5744791667</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>492</v>
@@ -5769,7 +5773,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
       <c r="A20" s="26" t="s">
         <v>340</v>
       </c>
@@ -5783,10 +5787,10 @@
         <v>496</v>
       </c>
       <c r="E20" s="24">
-        <v>45321.583333333336</v>
+        <v>45321.5833333333</v>
       </c>
       <c r="F20" s="24">
-        <v>45651.77239583333</v>
+        <v>45651.7723958333</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>497</v>
@@ -5807,7 +5811,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row spans="1:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
         <v>331</v>
       </c>
@@ -5821,10 +5825,10 @@
         <v>499</v>
       </c>
       <c r="E21" s="30">
-        <v>45296.472384259258</v>
+        <v>45296.4723842593</v>
       </c>
       <c r="F21" s="30">
-        <v>45608.857800925929</v>
+        <v>45608.8578009259</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>500</v>
@@ -5843,6 +5847,4646 @@
       </c>
       <c r="L21" s="31" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="23" t="inlineStr">
+        <is>
+          <t>Alejandro Díaz Vargas</t>
+        </is>
+      </c>
+      <c r="B22" s="23" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C22" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="23" t="inlineStr">
+        <is>
+          <t>3140000</t>
+        </is>
+      </c>
+      <c r="E22" s="41">
+        <v>45306.6666666667</v>
+      </c>
+      <c r="F22" s="41">
+        <v>45371.6666666667</v>
+      </c>
+      <c r="G22" s="23" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H22" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I22" s="23" t="inlineStr">
+        <is>
+          <t>Santa Rosalía</t>
+        </is>
+      </c>
+      <c r="J22" s="23" t="inlineStr">
+        <is>
+          <t>Vichada</t>
+        </is>
+      </c>
+      <c r="K22" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L22" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="23" t="inlineStr">
+        <is>
+          <t>Sofía Gómez Betancur</t>
+        </is>
+      </c>
+      <c r="B23" s="23" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C23" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" s="23" t="inlineStr">
+        <is>
+          <t>11701649</t>
+        </is>
+      </c>
+      <c r="E23" s="41">
+        <v>45418.7083333333</v>
+      </c>
+      <c r="F23" s="41">
+        <v>45555.5833333333</v>
+      </c>
+      <c r="G23" s="23" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="H23" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I23" s="23" t="inlineStr">
+        <is>
+          <t>Cogua</t>
+        </is>
+      </c>
+      <c r="J23" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K23" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L23" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="23" t="inlineStr">
+        <is>
+          <t>Mateo Giraldo Pérez</t>
+        </is>
+      </c>
+      <c r="B24" s="23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C24" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" s="23" t="inlineStr">
+        <is>
+          <t>3863264</t>
+        </is>
+      </c>
+      <c r="E24" s="41">
+        <v>45331.5833333333</v>
+      </c>
+      <c r="F24" s="41">
+        <v>45518.4166666667</v>
+      </c>
+      <c r="G24" s="23" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H24" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I24" s="23" t="inlineStr">
+        <is>
+          <t>Sesquilé</t>
+        </is>
+      </c>
+      <c r="J24" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K24" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L24" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="23" t="inlineStr">
+        <is>
+          <t>Isabella Henao Álvarez</t>
+        </is>
+      </c>
+      <c r="B25" s="23" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C25" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="23" t="inlineStr">
+        <is>
+          <t>1184800</t>
+        </is>
+      </c>
+      <c r="E25" s="41">
+        <v>45398.5416666667</v>
+      </c>
+      <c r="F25" s="41">
+        <v>45465.6666666667</v>
+      </c>
+      <c r="G25" s="23" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H25" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Occidente</t>
+        </is>
+      </c>
+      <c r="I25" s="23" t="inlineStr">
+        <is>
+          <t>Gachancipá</t>
+        </is>
+      </c>
+      <c r="J25" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K25" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L25" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="23" t="inlineStr">
+        <is>
+          <t>Sara López Naranjo</t>
+        </is>
+      </c>
+      <c r="B26" s="23" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C26" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" s="23" t="inlineStr">
+        <is>
+          <t>2222000</t>
+        </is>
+      </c>
+      <c r="E26" s="41">
+        <v>45366.7083333333</v>
+      </c>
+      <c r="F26" s="41">
+        <v>45491.5833333333</v>
+      </c>
+      <c r="G26" s="23" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H26" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, Banco Davivienda</t>
+        </is>
+      </c>
+      <c r="I26" s="23" t="inlineStr">
+        <is>
+          <t>Tabio</t>
+        </is>
+      </c>
+      <c r="J26" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K26" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L26" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="23" t="inlineStr">
+        <is>
+          <t>Julián Marín Gómez</t>
+        </is>
+      </c>
+      <c r="B27" s="23" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C27" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" s="23" t="inlineStr">
+        <is>
+          <t>1824000</t>
+        </is>
+      </c>
+      <c r="E27" s="41">
+        <v>45435.6666666667</v>
+      </c>
+      <c r="F27" s="41">
+        <v>45543.3333333333</v>
+      </c>
+      <c r="G27" s="23" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H27" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I27" s="23" t="inlineStr">
+        <is>
+          <t>Cota</t>
+        </is>
+      </c>
+      <c r="J27" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K27" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L27" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="23" t="inlineStr">
+        <is>
+          <t>Eduardo Posada Giraldo</t>
+        </is>
+      </c>
+      <c r="B28" s="23" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C28" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" s="23" t="inlineStr">
+        <is>
+          <t>536000000</t>
+        </is>
+      </c>
+      <c r="E28" s="41">
+        <v>45390.4166666667</v>
+      </c>
+      <c r="F28" s="41">
+        <v>45470.4166666667</v>
+      </c>
+      <c r="G28" s="23" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H28" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I28" s="23" t="inlineStr">
+        <is>
+          <t>La Calera</t>
+        </is>
+      </c>
+      <c r="J28" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K28" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L28" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="23" t="inlineStr">
+        <is>
+          <t>Alejandra Escobar Castaño</t>
+        </is>
+      </c>
+      <c r="B29" s="23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C29" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" s="23" t="inlineStr">
+        <is>
+          <t>6398634</t>
+        </is>
+      </c>
+      <c r="E29" s="41">
+        <v>45376.5416666667</v>
+      </c>
+      <c r="F29" s="41">
+        <v>45482.7083333333</v>
+      </c>
+      <c r="G29" s="23" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H29" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, Banco Davivienda</t>
+        </is>
+      </c>
+      <c r="I29" s="23" t="inlineStr">
+        <is>
+          <t>Nemocón</t>
+        </is>
+      </c>
+      <c r="J29" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K29" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L29" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="23" t="inlineStr">
+        <is>
+          <t>Valentina Rodríguez Arias</t>
+        </is>
+      </c>
+      <c r="B30" s="23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C30" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" s="23" t="inlineStr">
+        <is>
+          <t>490000</t>
+        </is>
+      </c>
+      <c r="E30" s="41">
+        <v>45313.4166666667</v>
+      </c>
+      <c r="F30" s="41">
+        <v>45577.7083333333</v>
+      </c>
+      <c r="G30" s="23" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="H30" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I30" s="23" t="inlineStr">
+        <is>
+          <t>Tocancipá</t>
+        </is>
+      </c>
+      <c r="J30" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K30" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L30" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="23" t="inlineStr">
+        <is>
+          <t>Manuela Suárez Morales</t>
+        </is>
+      </c>
+      <c r="B31" s="23" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C31" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" s="23" t="inlineStr">
+        <is>
+          <t>642000</t>
+        </is>
+      </c>
+      <c r="E31" s="41">
+        <v>45423.625</v>
+      </c>
+      <c r="F31" s="41">
+        <v>45553.3333333333</v>
+      </c>
+      <c r="G31" s="23" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H31" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Bancolombia</t>
+        </is>
+      </c>
+      <c r="I31" s="23" t="inlineStr">
+        <is>
+          <t>Cajicá</t>
+        </is>
+      </c>
+      <c r="J31" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K31" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L31" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="23" t="inlineStr">
+        <is>
+          <t>Diego Herrera Jiménez</t>
+        </is>
+      </c>
+      <c r="B32" s="23" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C32" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" s="23" t="inlineStr">
+        <is>
+          <t>12384000</t>
+        </is>
+      </c>
+      <c r="E32" s="41">
+        <v>45329.5</v>
+      </c>
+      <c r="F32" s="41">
+        <v>45532.375</v>
+      </c>
+      <c r="G32" s="23" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H32" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I32" s="23" t="inlineStr">
+        <is>
+          <t>Funza</t>
+        </is>
+      </c>
+      <c r="J32" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K32" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L32" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="23" t="inlineStr">
+        <is>
+          <t>Andrea Vega Ospina</t>
+        </is>
+      </c>
+      <c r="B33" s="23" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C33" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" s="23" t="inlineStr">
+        <is>
+          <t>1380000</t>
+        </is>
+      </c>
+      <c r="E33" s="41">
+        <v>45407.7083333333</v>
+      </c>
+      <c r="F33" s="41">
+        <v>45458.5416666667</v>
+      </c>
+      <c r="G33" s="23" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H33" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I33" s="23" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="J33" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K33" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L33" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="23" t="inlineStr">
+        <is>
+          <t>Sebastián Castillo Ramírez</t>
+        </is>
+      </c>
+      <c r="B34" s="23" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C34" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" s="23" t="inlineStr">
+        <is>
+          <t>1066400</t>
+        </is>
+      </c>
+      <c r="E34" s="41">
+        <v>45309.6666666667</v>
+      </c>
+      <c r="F34" s="41">
+        <v>45507.4583333333</v>
+      </c>
+      <c r="G34" s="23" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H34" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I34" s="23" t="inlineStr">
+        <is>
+          <t>Mosquera</t>
+        </is>
+      </c>
+      <c r="J34" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K34" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L34" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="23" t="inlineStr">
+        <is>
+          <t>Catalina Arango Gómez</t>
+        </is>
+      </c>
+      <c r="B35" s="23" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C35" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" s="23" t="inlineStr">
+        <is>
+          <t>40760000</t>
+        </is>
+      </c>
+      <c r="E35" s="41">
+        <v>45363.4583333333</v>
+      </c>
+      <c r="F35" s="41">
+        <v>45495.625</v>
+      </c>
+      <c r="G35" s="23" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H35" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Bancolombia</t>
+        </is>
+      </c>
+      <c r="I35" s="23" t="inlineStr">
+        <is>
+          <t>Chía</t>
+        </is>
+      </c>
+      <c r="J35" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K35" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L35" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="23" t="inlineStr">
+        <is>
+          <t>Camilo Gutiérrez Ruiz</t>
+        </is>
+      </c>
+      <c r="B36" s="23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C36" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" s="23" t="inlineStr">
+        <is>
+          <t>2050000</t>
+        </is>
+      </c>
+      <c r="E36" s="41">
+        <v>45413.625</v>
+      </c>
+      <c r="F36" s="41">
+        <v>45448.4166666667</v>
+      </c>
+      <c r="G36" s="23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H36" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I36" s="23" t="inlineStr">
+        <is>
+          <t>Facatativá</t>
+        </is>
+      </c>
+      <c r="J36" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K36" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L36" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="23" t="inlineStr">
+        <is>
+          <t>Luisa Martínez Rincón</t>
+        </is>
+      </c>
+      <c r="B37" s="23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C37" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" s="23" t="inlineStr">
+        <is>
+          <t>1700000</t>
+        </is>
+      </c>
+      <c r="E37" s="41">
+        <v>45350.4583333333</v>
+      </c>
+      <c r="F37" s="41">
+        <v>45392.5</v>
+      </c>
+      <c r="G37" s="23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H37" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I37" s="23" t="inlineStr">
+        <is>
+          <t>Zipaquirá</t>
+        </is>
+      </c>
+      <c r="J37" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K37" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L37" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="23" t="inlineStr">
+        <is>
+          <t>Jorge Sánchez Torres</t>
+        </is>
+      </c>
+      <c r="B38" s="23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C38" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" s="23" t="inlineStr">
+        <is>
+          <t>14664000</t>
+        </is>
+      </c>
+      <c r="E38" s="41">
+        <v>45381.3333333333</v>
+      </c>
+      <c r="F38" s="41">
+        <v>45478.4583333333</v>
+      </c>
+      <c r="G38" s="23" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H38" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I38" s="23" t="inlineStr">
+        <is>
+          <t>Sibaté</t>
+        </is>
+      </c>
+      <c r="J38" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K38" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L38" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="23" t="inlineStr">
+        <is>
+          <t>Ana Montoya Vásquez</t>
+        </is>
+      </c>
+      <c r="B39" s="23" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C39" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D39" s="23" t="inlineStr">
+        <is>
+          <t>31391431</t>
+        </is>
+      </c>
+      <c r="E39" s="41">
+        <v>45327.5980899653</v>
+      </c>
+      <c r="F39" s="41">
+        <v>45640.5744788542</v>
+      </c>
+      <c r="G39" s="23" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="H39" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I39" s="23" t="inlineStr">
+        <is>
+          <t>Sopó</t>
+        </is>
+      </c>
+      <c r="J39" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K39" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L39" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="23" t="inlineStr">
+        <is>
+          <t>Daniel Jiménez Hurtado</t>
+        </is>
+      </c>
+      <c r="B40" s="23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C40" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D40" s="23" t="inlineStr">
+        <is>
+          <t>75936465</t>
+        </is>
+      </c>
+      <c r="E40" s="41">
+        <v>45321.5833333333</v>
+      </c>
+      <c r="F40" s="41">
+        <v>45651.7723908565</v>
+      </c>
+      <c r="G40" s="23" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H40" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I40" s="23" t="inlineStr">
+        <is>
+          <t>Tenjo</t>
+        </is>
+      </c>
+      <c r="J40" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K40" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L40" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="23" t="inlineStr">
+        <is>
+          <t>Nicolás Duque Restrepo</t>
+        </is>
+      </c>
+      <c r="B41" s="23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C41" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D41" s="23" t="inlineStr">
+        <is>
+          <t>14838805</t>
+        </is>
+      </c>
+      <c r="E41" s="41">
+        <v>45296.4723896991</v>
+      </c>
+      <c r="F41" s="41">
+        <v>45608.8578063657</v>
+      </c>
+      <c r="G41" s="23" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="H41" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I41" s="23" t="inlineStr">
+        <is>
+          <t>Guatavita</t>
+        </is>
+      </c>
+      <c r="J41" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K41" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L41" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="23" t="inlineStr">
+        <is>
+          <t>Alejandro Díaz Vargas</t>
+        </is>
+      </c>
+      <c r="B42" s="23" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C42" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" s="23" t="inlineStr">
+        <is>
+          <t>3140000</t>
+        </is>
+      </c>
+      <c r="E42" s="41">
+        <v>45306.6666666667</v>
+      </c>
+      <c r="F42" s="41">
+        <v>45371.6666666667</v>
+      </c>
+      <c r="G42" s="23" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H42" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I42" s="23" t="inlineStr">
+        <is>
+          <t>Santa Rosalía</t>
+        </is>
+      </c>
+      <c r="J42" s="23" t="inlineStr">
+        <is>
+          <t>Vichada</t>
+        </is>
+      </c>
+      <c r="K42" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L42" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="23" t="inlineStr">
+        <is>
+          <t>Sofía Gómez Betancur</t>
+        </is>
+      </c>
+      <c r="B43" s="23" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C43" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43" s="23" t="inlineStr">
+        <is>
+          <t>11701649</t>
+        </is>
+      </c>
+      <c r="E43" s="41">
+        <v>45418.7083333333</v>
+      </c>
+      <c r="F43" s="41">
+        <v>45555.5833333333</v>
+      </c>
+      <c r="G43" s="23" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="H43" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I43" s="23" t="inlineStr">
+        <is>
+          <t>Cogua</t>
+        </is>
+      </c>
+      <c r="J43" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K43" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L43" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="23" t="inlineStr">
+        <is>
+          <t>Mateo Giraldo Pérez</t>
+        </is>
+      </c>
+      <c r="B44" s="23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C44" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" s="23" t="inlineStr">
+        <is>
+          <t>3863264</t>
+        </is>
+      </c>
+      <c r="E44" s="41">
+        <v>45331.5833333333</v>
+      </c>
+      <c r="F44" s="41">
+        <v>45518.4166666667</v>
+      </c>
+      <c r="G44" s="23" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H44" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I44" s="23" t="inlineStr">
+        <is>
+          <t>Sesquilé</t>
+        </is>
+      </c>
+      <c r="J44" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K44" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L44" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="23" t="inlineStr">
+        <is>
+          <t>Isabella Henao Álvarez</t>
+        </is>
+      </c>
+      <c r="B45" s="23" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C45" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" s="23" t="inlineStr">
+        <is>
+          <t>1184800</t>
+        </is>
+      </c>
+      <c r="E45" s="41">
+        <v>45398.5416666667</v>
+      </c>
+      <c r="F45" s="41">
+        <v>45465.6666666667</v>
+      </c>
+      <c r="G45" s="23" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H45" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Occidente</t>
+        </is>
+      </c>
+      <c r="I45" s="23" t="inlineStr">
+        <is>
+          <t>Gachancipá</t>
+        </is>
+      </c>
+      <c r="J45" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K45" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L45" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="23" t="inlineStr">
+        <is>
+          <t>Sara López Naranjo</t>
+        </is>
+      </c>
+      <c r="B46" s="23" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C46" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" s="23" t="inlineStr">
+        <is>
+          <t>2222000</t>
+        </is>
+      </c>
+      <c r="E46" s="41">
+        <v>45366.7083333333</v>
+      </c>
+      <c r="F46" s="41">
+        <v>45491.5833333333</v>
+      </c>
+      <c r="G46" s="23" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H46" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, Banco Davivienda</t>
+        </is>
+      </c>
+      <c r="I46" s="23" t="inlineStr">
+        <is>
+          <t>Tabio</t>
+        </is>
+      </c>
+      <c r="J46" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K46" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L46" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="23" t="inlineStr">
+        <is>
+          <t>Julián Marín Gómez</t>
+        </is>
+      </c>
+      <c r="B47" s="23" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C47" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" s="23" t="inlineStr">
+        <is>
+          <t>1824000</t>
+        </is>
+      </c>
+      <c r="E47" s="41">
+        <v>45435.6666666667</v>
+      </c>
+      <c r="F47" s="41">
+        <v>45543.3333333333</v>
+      </c>
+      <c r="G47" s="23" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H47" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I47" s="23" t="inlineStr">
+        <is>
+          <t>Cota</t>
+        </is>
+      </c>
+      <c r="J47" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K47" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L47" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="23" t="inlineStr">
+        <is>
+          <t>Eduardo Posada Giraldo</t>
+        </is>
+      </c>
+      <c r="B48" s="23" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C48" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48" s="23" t="inlineStr">
+        <is>
+          <t>536000000</t>
+        </is>
+      </c>
+      <c r="E48" s="41">
+        <v>45390.4166666667</v>
+      </c>
+      <c r="F48" s="41">
+        <v>45470.4166666667</v>
+      </c>
+      <c r="G48" s="23" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H48" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I48" s="23" t="inlineStr">
+        <is>
+          <t>La Calera</t>
+        </is>
+      </c>
+      <c r="J48" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K48" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L48" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="23" t="inlineStr">
+        <is>
+          <t>Alejandra Escobar Castaño</t>
+        </is>
+      </c>
+      <c r="B49" s="23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C49" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" s="23" t="inlineStr">
+        <is>
+          <t>6398634</t>
+        </is>
+      </c>
+      <c r="E49" s="41">
+        <v>45376.5416666667</v>
+      </c>
+      <c r="F49" s="41">
+        <v>45482.7083333333</v>
+      </c>
+      <c r="G49" s="23" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H49" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, Banco Davivienda</t>
+        </is>
+      </c>
+      <c r="I49" s="23" t="inlineStr">
+        <is>
+          <t>Nemocón</t>
+        </is>
+      </c>
+      <c r="J49" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K49" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L49" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="23" t="inlineStr">
+        <is>
+          <t>Valentina Rodríguez Arias</t>
+        </is>
+      </c>
+      <c r="B50" s="23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C50" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D50" s="23" t="inlineStr">
+        <is>
+          <t>490000</t>
+        </is>
+      </c>
+      <c r="E50" s="41">
+        <v>45313.4166666667</v>
+      </c>
+      <c r="F50" s="41">
+        <v>45577.7083333333</v>
+      </c>
+      <c r="G50" s="23" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="H50" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I50" s="23" t="inlineStr">
+        <is>
+          <t>Tocancipá</t>
+        </is>
+      </c>
+      <c r="J50" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K50" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L50" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="23" t="inlineStr">
+        <is>
+          <t>Manuela Suárez Morales</t>
+        </is>
+      </c>
+      <c r="B51" s="23" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C51" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D51" s="23" t="inlineStr">
+        <is>
+          <t>642000</t>
+        </is>
+      </c>
+      <c r="E51" s="41">
+        <v>45423.625</v>
+      </c>
+      <c r="F51" s="41">
+        <v>45553.3333333333</v>
+      </c>
+      <c r="G51" s="23" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H51" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Bancolombia</t>
+        </is>
+      </c>
+      <c r="I51" s="23" t="inlineStr">
+        <is>
+          <t>Cajicá</t>
+        </is>
+      </c>
+      <c r="J51" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K51" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L51" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="23" t="inlineStr">
+        <is>
+          <t>Diego Herrera Jiménez</t>
+        </is>
+      </c>
+      <c r="B52" s="23" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C52" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52" s="23" t="inlineStr">
+        <is>
+          <t>12384000</t>
+        </is>
+      </c>
+      <c r="E52" s="41">
+        <v>45329.5</v>
+      </c>
+      <c r="F52" s="41">
+        <v>45532.375</v>
+      </c>
+      <c r="G52" s="23" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H52" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I52" s="23" t="inlineStr">
+        <is>
+          <t>Funza</t>
+        </is>
+      </c>
+      <c r="J52" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K52" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L52" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="23" t="inlineStr">
+        <is>
+          <t>Andrea Vega Ospina</t>
+        </is>
+      </c>
+      <c r="B53" s="23" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C53" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53" s="23" t="inlineStr">
+        <is>
+          <t>1380000</t>
+        </is>
+      </c>
+      <c r="E53" s="41">
+        <v>45407.7083333333</v>
+      </c>
+      <c r="F53" s="41">
+        <v>45458.5416666667</v>
+      </c>
+      <c r="G53" s="23" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H53" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I53" s="23" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="J53" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K53" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L53" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="23" t="inlineStr">
+        <is>
+          <t>Sebastián Castillo Ramírez</t>
+        </is>
+      </c>
+      <c r="B54" s="23" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C54" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54" s="23" t="inlineStr">
+        <is>
+          <t>1066400</t>
+        </is>
+      </c>
+      <c r="E54" s="41">
+        <v>45309.6666666667</v>
+      </c>
+      <c r="F54" s="41">
+        <v>45507.4583333333</v>
+      </c>
+      <c r="G54" s="23" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H54" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I54" s="23" t="inlineStr">
+        <is>
+          <t>Mosquera</t>
+        </is>
+      </c>
+      <c r="J54" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K54" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L54" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="23" t="inlineStr">
+        <is>
+          <t>Catalina Arango Gómez</t>
+        </is>
+      </c>
+      <c r="B55" s="23" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C55" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55" s="23" t="inlineStr">
+        <is>
+          <t>40760000</t>
+        </is>
+      </c>
+      <c r="E55" s="41">
+        <v>45363.4583333333</v>
+      </c>
+      <c r="F55" s="41">
+        <v>45495.625</v>
+      </c>
+      <c r="G55" s="23" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H55" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Bancolombia</t>
+        </is>
+      </c>
+      <c r="I55" s="23" t="inlineStr">
+        <is>
+          <t>Chía</t>
+        </is>
+      </c>
+      <c r="J55" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K55" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L55" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="23" t="inlineStr">
+        <is>
+          <t>Camilo Gutiérrez Ruiz</t>
+        </is>
+      </c>
+      <c r="B56" s="23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C56" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D56" s="23" t="inlineStr">
+        <is>
+          <t>2050000</t>
+        </is>
+      </c>
+      <c r="E56" s="41">
+        <v>45413.625</v>
+      </c>
+      <c r="F56" s="41">
+        <v>45448.4166666667</v>
+      </c>
+      <c r="G56" s="23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H56" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I56" s="23" t="inlineStr">
+        <is>
+          <t>Facatativá</t>
+        </is>
+      </c>
+      <c r="J56" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K56" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L56" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="23" t="inlineStr">
+        <is>
+          <t>Luisa Martínez Rincón</t>
+        </is>
+      </c>
+      <c r="B57" s="23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C57" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D57" s="23" t="inlineStr">
+        <is>
+          <t>1700000</t>
+        </is>
+      </c>
+      <c r="E57" s="41">
+        <v>45350.4583333333</v>
+      </c>
+      <c r="F57" s="41">
+        <v>45392.5</v>
+      </c>
+      <c r="G57" s="23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H57" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I57" s="23" t="inlineStr">
+        <is>
+          <t>Zipaquirá</t>
+        </is>
+      </c>
+      <c r="J57" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K57" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L57" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="23" t="inlineStr">
+        <is>
+          <t>Jorge Sánchez Torres</t>
+        </is>
+      </c>
+      <c r="B58" s="23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C58" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" s="23" t="inlineStr">
+        <is>
+          <t>14664000</t>
+        </is>
+      </c>
+      <c r="E58" s="41">
+        <v>45381.3333333333</v>
+      </c>
+      <c r="F58" s="41">
+        <v>45478.4583333333</v>
+      </c>
+      <c r="G58" s="23" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H58" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I58" s="23" t="inlineStr">
+        <is>
+          <t>Sibaté</t>
+        </is>
+      </c>
+      <c r="J58" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K58" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L58" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="23" t="inlineStr">
+        <is>
+          <t>Ana Montoya Vásquez</t>
+        </is>
+      </c>
+      <c r="B59" s="23" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C59" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D59" s="23" t="inlineStr">
+        <is>
+          <t>31391431</t>
+        </is>
+      </c>
+      <c r="E59" s="41">
+        <v>45327.5980899653</v>
+      </c>
+      <c r="F59" s="41">
+        <v>45640.5744788542</v>
+      </c>
+      <c r="G59" s="23" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="H59" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I59" s="23" t="inlineStr">
+        <is>
+          <t>Sopó</t>
+        </is>
+      </c>
+      <c r="J59" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K59" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L59" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="23" t="inlineStr">
+        <is>
+          <t>Daniel Jiménez Hurtado</t>
+        </is>
+      </c>
+      <c r="B60" s="23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C60" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D60" s="23" t="inlineStr">
+        <is>
+          <t>75936465</t>
+        </is>
+      </c>
+      <c r="E60" s="41">
+        <v>45321.5833333333</v>
+      </c>
+      <c r="F60" s="41">
+        <v>45651.7723908565</v>
+      </c>
+      <c r="G60" s="23" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H60" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I60" s="23" t="inlineStr">
+        <is>
+          <t>Tenjo</t>
+        </is>
+      </c>
+      <c r="J60" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K60" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L60" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="23" t="inlineStr">
+        <is>
+          <t>Nicolás Duque Restrepo</t>
+        </is>
+      </c>
+      <c r="B61" s="23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C61" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D61" s="23" t="inlineStr">
+        <is>
+          <t>14838805</t>
+        </is>
+      </c>
+      <c r="E61" s="41">
+        <v>45296.4723896991</v>
+      </c>
+      <c r="F61" s="41">
+        <v>45608.8578063657</v>
+      </c>
+      <c r="G61" s="23" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="H61" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I61" s="23" t="inlineStr">
+        <is>
+          <t>Guatavita</t>
+        </is>
+      </c>
+      <c r="J61" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K61" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L61" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="23" t="inlineStr">
+        <is>
+          <t>Alejandro Díaz Vargas</t>
+        </is>
+      </c>
+      <c r="B62" s="23" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C62" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D62" s="23" t="inlineStr">
+        <is>
+          <t>3140000</t>
+        </is>
+      </c>
+      <c r="E62" s="41">
+        <v>45306.6666666667</v>
+      </c>
+      <c r="F62" s="41">
+        <v>45371.6666666667</v>
+      </c>
+      <c r="G62" s="23" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H62" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I62" s="23" t="inlineStr">
+        <is>
+          <t>Santa Rosalía</t>
+        </is>
+      </c>
+      <c r="J62" s="23" t="inlineStr">
+        <is>
+          <t>Vichada</t>
+        </is>
+      </c>
+      <c r="K62" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L62" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="23" t="inlineStr">
+        <is>
+          <t>Sofía Gómez Betancur</t>
+        </is>
+      </c>
+      <c r="B63" s="23" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C63" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D63" s="23" t="inlineStr">
+        <is>
+          <t>11701649</t>
+        </is>
+      </c>
+      <c r="E63" s="41">
+        <v>45418.7083333333</v>
+      </c>
+      <c r="F63" s="41">
+        <v>45555.5833333333</v>
+      </c>
+      <c r="G63" s="23" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="H63" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I63" s="23" t="inlineStr">
+        <is>
+          <t>Cogua</t>
+        </is>
+      </c>
+      <c r="J63" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K63" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L63" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="23" t="inlineStr">
+        <is>
+          <t>Mateo Giraldo Pérez</t>
+        </is>
+      </c>
+      <c r="B64" s="23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C64" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64" s="23" t="inlineStr">
+        <is>
+          <t>3863264</t>
+        </is>
+      </c>
+      <c r="E64" s="41">
+        <v>45331.5833333333</v>
+      </c>
+      <c r="F64" s="41">
+        <v>45518.4166666667</v>
+      </c>
+      <c r="G64" s="23" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H64" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I64" s="23" t="inlineStr">
+        <is>
+          <t>Sesquilé</t>
+        </is>
+      </c>
+      <c r="J64" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K64" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L64" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="23" t="inlineStr">
+        <is>
+          <t>Isabella Henao Álvarez</t>
+        </is>
+      </c>
+      <c r="B65" s="23" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C65" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D65" s="23" t="inlineStr">
+        <is>
+          <t>1184800</t>
+        </is>
+      </c>
+      <c r="E65" s="41">
+        <v>45398.5416666667</v>
+      </c>
+      <c r="F65" s="41">
+        <v>45465.6666666667</v>
+      </c>
+      <c r="G65" s="23" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H65" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Occidente</t>
+        </is>
+      </c>
+      <c r="I65" s="23" t="inlineStr">
+        <is>
+          <t>Gachancipá</t>
+        </is>
+      </c>
+      <c r="J65" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K65" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L65" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="23" t="inlineStr">
+        <is>
+          <t>Sara López Naranjo</t>
+        </is>
+      </c>
+      <c r="B66" s="23" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C66" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D66" s="23" t="inlineStr">
+        <is>
+          <t>2222000</t>
+        </is>
+      </c>
+      <c r="E66" s="41">
+        <v>45366.7083333333</v>
+      </c>
+      <c r="F66" s="41">
+        <v>45491.5833333333</v>
+      </c>
+      <c r="G66" s="23" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H66" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, Banco Davivienda</t>
+        </is>
+      </c>
+      <c r="I66" s="23" t="inlineStr">
+        <is>
+          <t>Tabio</t>
+        </is>
+      </c>
+      <c r="J66" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K66" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L66" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="23" t="inlineStr">
+        <is>
+          <t>Julián Marín Gómez</t>
+        </is>
+      </c>
+      <c r="B67" s="23" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C67" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67" s="23" t="inlineStr">
+        <is>
+          <t>1824000</t>
+        </is>
+      </c>
+      <c r="E67" s="41">
+        <v>45435.6666666667</v>
+      </c>
+      <c r="F67" s="41">
+        <v>45543.3333333333</v>
+      </c>
+      <c r="G67" s="23" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H67" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I67" s="23" t="inlineStr">
+        <is>
+          <t>Cota</t>
+        </is>
+      </c>
+      <c r="J67" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K67" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L67" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="23" t="inlineStr">
+        <is>
+          <t>Eduardo Posada Giraldo</t>
+        </is>
+      </c>
+      <c r="B68" s="23" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C68" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" s="23" t="inlineStr">
+        <is>
+          <t>536000000</t>
+        </is>
+      </c>
+      <c r="E68" s="41">
+        <v>45390.4166666667</v>
+      </c>
+      <c r="F68" s="41">
+        <v>45470.4166666667</v>
+      </c>
+      <c r="G68" s="23" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H68" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I68" s="23" t="inlineStr">
+        <is>
+          <t>La Calera</t>
+        </is>
+      </c>
+      <c r="J68" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K68" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L68" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="23" t="inlineStr">
+        <is>
+          <t>Alejandra Escobar Castaño</t>
+        </is>
+      </c>
+      <c r="B69" s="23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C69" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" s="23" t="inlineStr">
+        <is>
+          <t>6398634</t>
+        </is>
+      </c>
+      <c r="E69" s="41">
+        <v>45376.5416666667</v>
+      </c>
+      <c r="F69" s="41">
+        <v>45482.7083333333</v>
+      </c>
+      <c r="G69" s="23" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H69" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, Banco Davivienda</t>
+        </is>
+      </c>
+      <c r="I69" s="23" t="inlineStr">
+        <is>
+          <t>Nemocón</t>
+        </is>
+      </c>
+      <c r="J69" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K69" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L69" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="23" t="inlineStr">
+        <is>
+          <t>Valentina Rodríguez Arias</t>
+        </is>
+      </c>
+      <c r="B70" s="23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C70" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70" s="23" t="inlineStr">
+        <is>
+          <t>490000</t>
+        </is>
+      </c>
+      <c r="E70" s="41">
+        <v>45313.4166666667</v>
+      </c>
+      <c r="F70" s="41">
+        <v>45577.7083333333</v>
+      </c>
+      <c r="G70" s="23" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="H70" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I70" s="23" t="inlineStr">
+        <is>
+          <t>Tocancipá</t>
+        </is>
+      </c>
+      <c r="J70" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K70" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L70" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="23" t="inlineStr">
+        <is>
+          <t>Manuela Suárez Morales</t>
+        </is>
+      </c>
+      <c r="B71" s="23" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C71" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D71" s="23" t="inlineStr">
+        <is>
+          <t>642000</t>
+        </is>
+      </c>
+      <c r="E71" s="41">
+        <v>45423.625</v>
+      </c>
+      <c r="F71" s="41">
+        <v>45553.3333333333</v>
+      </c>
+      <c r="G71" s="23" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H71" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Bancolombia</t>
+        </is>
+      </c>
+      <c r="I71" s="23" t="inlineStr">
+        <is>
+          <t>Cajicá</t>
+        </is>
+      </c>
+      <c r="J71" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K71" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L71" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="23" t="inlineStr">
+        <is>
+          <t>Diego Herrera Jiménez</t>
+        </is>
+      </c>
+      <c r="B72" s="23" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C72" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D72" s="23" t="inlineStr">
+        <is>
+          <t>12384000</t>
+        </is>
+      </c>
+      <c r="E72" s="41">
+        <v>45329.5</v>
+      </c>
+      <c r="F72" s="41">
+        <v>45532.375</v>
+      </c>
+      <c r="G72" s="23" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H72" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I72" s="23" t="inlineStr">
+        <is>
+          <t>Funza</t>
+        </is>
+      </c>
+      <c r="J72" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K72" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L72" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="23" t="inlineStr">
+        <is>
+          <t>Andrea Vega Ospina</t>
+        </is>
+      </c>
+      <c r="B73" s="23" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C73" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" s="23" t="inlineStr">
+        <is>
+          <t>1380000</t>
+        </is>
+      </c>
+      <c r="E73" s="41">
+        <v>45407.7083333333</v>
+      </c>
+      <c r="F73" s="41">
+        <v>45458.5416666667</v>
+      </c>
+      <c r="G73" s="23" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H73" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I73" s="23" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="J73" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K73" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L73" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="23" t="inlineStr">
+        <is>
+          <t>Sebastián Castillo Ramírez</t>
+        </is>
+      </c>
+      <c r="B74" s="23" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C74" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" s="23" t="inlineStr">
+        <is>
+          <t>1066400</t>
+        </is>
+      </c>
+      <c r="E74" s="41">
+        <v>45309.6666666667</v>
+      </c>
+      <c r="F74" s="41">
+        <v>45507.4583333333</v>
+      </c>
+      <c r="G74" s="23" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H74" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I74" s="23" t="inlineStr">
+        <is>
+          <t>Mosquera</t>
+        </is>
+      </c>
+      <c r="J74" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K74" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L74" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="23" t="inlineStr">
+        <is>
+          <t>Catalina Arango Gómez</t>
+        </is>
+      </c>
+      <c r="B75" s="23" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C75" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D75" s="23" t="inlineStr">
+        <is>
+          <t>40760000</t>
+        </is>
+      </c>
+      <c r="E75" s="41">
+        <v>45363.4583333333</v>
+      </c>
+      <c r="F75" s="41">
+        <v>45495.625</v>
+      </c>
+      <c r="G75" s="23" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H75" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Bancolombia</t>
+        </is>
+      </c>
+      <c r="I75" s="23" t="inlineStr">
+        <is>
+          <t>Chía</t>
+        </is>
+      </c>
+      <c r="J75" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K75" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L75" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="23" t="inlineStr">
+        <is>
+          <t>Camilo Gutiérrez Ruiz</t>
+        </is>
+      </c>
+      <c r="B76" s="23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C76" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D76" s="23" t="inlineStr">
+        <is>
+          <t>2050000</t>
+        </is>
+      </c>
+      <c r="E76" s="41">
+        <v>45413.625</v>
+      </c>
+      <c r="F76" s="41">
+        <v>45448.4166666667</v>
+      </c>
+      <c r="G76" s="23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H76" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I76" s="23" t="inlineStr">
+        <is>
+          <t>Facatativá</t>
+        </is>
+      </c>
+      <c r="J76" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K76" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L76" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="23" t="inlineStr">
+        <is>
+          <t>Luisa Martínez Rincón</t>
+        </is>
+      </c>
+      <c r="B77" s="23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C77" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77" s="23" t="inlineStr">
+        <is>
+          <t>1700000</t>
+        </is>
+      </c>
+      <c r="E77" s="41">
+        <v>45350.4583333333</v>
+      </c>
+      <c r="F77" s="41">
+        <v>45392.5</v>
+      </c>
+      <c r="G77" s="23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H77" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I77" s="23" t="inlineStr">
+        <is>
+          <t>Zipaquirá</t>
+        </is>
+      </c>
+      <c r="J77" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K77" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L77" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="23" t="inlineStr">
+        <is>
+          <t>Jorge Sánchez Torres</t>
+        </is>
+      </c>
+      <c r="B78" s="23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C78" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D78" s="23" t="inlineStr">
+        <is>
+          <t>14664000</t>
+        </is>
+      </c>
+      <c r="E78" s="41">
+        <v>45381.3333333333</v>
+      </c>
+      <c r="F78" s="41">
+        <v>45478.4583333333</v>
+      </c>
+      <c r="G78" s="23" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H78" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I78" s="23" t="inlineStr">
+        <is>
+          <t>Sibaté</t>
+        </is>
+      </c>
+      <c r="J78" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K78" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L78" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="23" t="inlineStr">
+        <is>
+          <t>Ana Montoya Vásquez</t>
+        </is>
+      </c>
+      <c r="B79" s="23" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C79" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D79" s="23" t="inlineStr">
+        <is>
+          <t>31391431</t>
+        </is>
+      </c>
+      <c r="E79" s="41">
+        <v>45327.5980899653</v>
+      </c>
+      <c r="F79" s="41">
+        <v>45640.5744788542</v>
+      </c>
+      <c r="G79" s="23" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="H79" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I79" s="23" t="inlineStr">
+        <is>
+          <t>Sopó</t>
+        </is>
+      </c>
+      <c r="J79" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K79" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L79" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="23" t="inlineStr">
+        <is>
+          <t>Daniel Jiménez Hurtado</t>
+        </is>
+      </c>
+      <c r="B80" s="23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C80" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D80" s="23" t="inlineStr">
+        <is>
+          <t>75936465</t>
+        </is>
+      </c>
+      <c r="E80" s="41">
+        <v>45321.5833333333</v>
+      </c>
+      <c r="F80" s="41">
+        <v>45651.7723908565</v>
+      </c>
+      <c r="G80" s="23" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H80" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I80" s="23" t="inlineStr">
+        <is>
+          <t>Tenjo</t>
+        </is>
+      </c>
+      <c r="J80" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K80" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L80" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="23" t="inlineStr">
+        <is>
+          <t>Nicolás Duque Restrepo</t>
+        </is>
+      </c>
+      <c r="B81" s="23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C81" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D81" s="23" t="inlineStr">
+        <is>
+          <t>14838805</t>
+        </is>
+      </c>
+      <c r="E81" s="41">
+        <v>45296.4723896991</v>
+      </c>
+      <c r="F81" s="41">
+        <v>45608.8578063657</v>
+      </c>
+      <c r="G81" s="23" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="H81" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I81" s="23" t="inlineStr">
+        <is>
+          <t>Guatavita</t>
+        </is>
+      </c>
+      <c r="J81" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K81" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L81" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="23" t="inlineStr">
+        <is>
+          <t>Alejandro Díaz Vargas</t>
+        </is>
+      </c>
+      <c r="B82" s="23" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C82" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D82" s="23" t="inlineStr">
+        <is>
+          <t>3140000</t>
+        </is>
+      </c>
+      <c r="E82" s="41">
+        <v>45306.6666666667</v>
+      </c>
+      <c r="F82" s="41">
+        <v>45371.6666666667</v>
+      </c>
+      <c r="G82" s="23" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H82" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I82" s="23" t="inlineStr">
+        <is>
+          <t>Santa Rosalía</t>
+        </is>
+      </c>
+      <c r="J82" s="23" t="inlineStr">
+        <is>
+          <t>Vichada</t>
+        </is>
+      </c>
+      <c r="K82" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L82" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="23" t="inlineStr">
+        <is>
+          <t>Sofía Gómez Betancur</t>
+        </is>
+      </c>
+      <c r="B83" s="23" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C83" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D83" s="23" t="inlineStr">
+        <is>
+          <t>11701649</t>
+        </is>
+      </c>
+      <c r="E83" s="41">
+        <v>45418.7083333333</v>
+      </c>
+      <c r="F83" s="41">
+        <v>45555.5833333333</v>
+      </c>
+      <c r="G83" s="23" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="H83" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I83" s="23" t="inlineStr">
+        <is>
+          <t>Cogua</t>
+        </is>
+      </c>
+      <c r="J83" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K83" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L83" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="23" t="inlineStr">
+        <is>
+          <t>Mateo Giraldo Pérez</t>
+        </is>
+      </c>
+      <c r="B84" s="23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C84" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D84" s="23" t="inlineStr">
+        <is>
+          <t>3863264</t>
+        </is>
+      </c>
+      <c r="E84" s="41">
+        <v>45331.5833333333</v>
+      </c>
+      <c r="F84" s="41">
+        <v>45518.4166666667</v>
+      </c>
+      <c r="G84" s="23" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H84" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I84" s="23" t="inlineStr">
+        <is>
+          <t>Sesquilé</t>
+        </is>
+      </c>
+      <c r="J84" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K84" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L84" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="23" t="inlineStr">
+        <is>
+          <t>Isabella Henao Álvarez</t>
+        </is>
+      </c>
+      <c r="B85" s="23" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C85" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D85" s="23" t="inlineStr">
+        <is>
+          <t>1184800</t>
+        </is>
+      </c>
+      <c r="E85" s="41">
+        <v>45398.5416666667</v>
+      </c>
+      <c r="F85" s="41">
+        <v>45465.6666666667</v>
+      </c>
+      <c r="G85" s="23" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H85" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Occidente</t>
+        </is>
+      </c>
+      <c r="I85" s="23" t="inlineStr">
+        <is>
+          <t>Gachancipá</t>
+        </is>
+      </c>
+      <c r="J85" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K85" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L85" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="23" t="inlineStr">
+        <is>
+          <t>Sara López Naranjo</t>
+        </is>
+      </c>
+      <c r="B86" s="23" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C86" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D86" s="23" t="inlineStr">
+        <is>
+          <t>2222000</t>
+        </is>
+      </c>
+      <c r="E86" s="41">
+        <v>45366.7083333333</v>
+      </c>
+      <c r="F86" s="41">
+        <v>45491.5833333333</v>
+      </c>
+      <c r="G86" s="23" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H86" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, Banco Davivienda</t>
+        </is>
+      </c>
+      <c r="I86" s="23" t="inlineStr">
+        <is>
+          <t>Tabio</t>
+        </is>
+      </c>
+      <c r="J86" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K86" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L86" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="23" t="inlineStr">
+        <is>
+          <t>Julián Marín Gómez</t>
+        </is>
+      </c>
+      <c r="B87" s="23" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C87" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D87" s="23" t="inlineStr">
+        <is>
+          <t>1824000</t>
+        </is>
+      </c>
+      <c r="E87" s="41">
+        <v>45435.6666666667</v>
+      </c>
+      <c r="F87" s="41">
+        <v>45543.3333333333</v>
+      </c>
+      <c r="G87" s="23" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H87" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I87" s="23" t="inlineStr">
+        <is>
+          <t>Cota</t>
+        </is>
+      </c>
+      <c r="J87" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K87" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L87" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="23" t="inlineStr">
+        <is>
+          <t>Eduardo Posada Giraldo</t>
+        </is>
+      </c>
+      <c r="B88" s="23" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C88" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D88" s="23" t="inlineStr">
+        <is>
+          <t>536000000</t>
+        </is>
+      </c>
+      <c r="E88" s="41">
+        <v>45390.4166666667</v>
+      </c>
+      <c r="F88" s="41">
+        <v>45470.4166666667</v>
+      </c>
+      <c r="G88" s="23" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H88" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I88" s="23" t="inlineStr">
+        <is>
+          <t>La Calera</t>
+        </is>
+      </c>
+      <c r="J88" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K88" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L88" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="23" t="inlineStr">
+        <is>
+          <t>Alejandra Escobar Castaño</t>
+        </is>
+      </c>
+      <c r="B89" s="23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C89" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D89" s="23" t="inlineStr">
+        <is>
+          <t>6398634</t>
+        </is>
+      </c>
+      <c r="E89" s="41">
+        <v>45376.5416666667</v>
+      </c>
+      <c r="F89" s="41">
+        <v>45482.7083333333</v>
+      </c>
+      <c r="G89" s="23" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H89" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, Banco Davivienda</t>
+        </is>
+      </c>
+      <c r="I89" s="23" t="inlineStr">
+        <is>
+          <t>Nemocón</t>
+        </is>
+      </c>
+      <c r="J89" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K89" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L89" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="23" t="inlineStr">
+        <is>
+          <t>Valentina Rodríguez Arias</t>
+        </is>
+      </c>
+      <c r="B90" s="23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C90" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D90" s="23" t="inlineStr">
+        <is>
+          <t>490000</t>
+        </is>
+      </c>
+      <c r="E90" s="41">
+        <v>45313.4166666667</v>
+      </c>
+      <c r="F90" s="41">
+        <v>45577.7083333333</v>
+      </c>
+      <c r="G90" s="23" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="H90" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I90" s="23" t="inlineStr">
+        <is>
+          <t>Tocancipá</t>
+        </is>
+      </c>
+      <c r="J90" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K90" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L90" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="23" t="inlineStr">
+        <is>
+          <t>Manuela Suárez Morales</t>
+        </is>
+      </c>
+      <c r="B91" s="23" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C91" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D91" s="23" t="inlineStr">
+        <is>
+          <t>642000</t>
+        </is>
+      </c>
+      <c r="E91" s="41">
+        <v>45423.625</v>
+      </c>
+      <c r="F91" s="41">
+        <v>45553.3333333333</v>
+      </c>
+      <c r="G91" s="23" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H91" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Bancolombia</t>
+        </is>
+      </c>
+      <c r="I91" s="23" t="inlineStr">
+        <is>
+          <t>Cajicá</t>
+        </is>
+      </c>
+      <c r="J91" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K91" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L91" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="23" t="inlineStr">
+        <is>
+          <t>Diego Herrera Jiménez</t>
+        </is>
+      </c>
+      <c r="B92" s="23" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C92" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D92" s="23" t="inlineStr">
+        <is>
+          <t>12384000</t>
+        </is>
+      </c>
+      <c r="E92" s="41">
+        <v>45329.5</v>
+      </c>
+      <c r="F92" s="41">
+        <v>45532.375</v>
+      </c>
+      <c r="G92" s="23" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H92" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I92" s="23" t="inlineStr">
+        <is>
+          <t>Funza</t>
+        </is>
+      </c>
+      <c r="J92" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K92" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L92" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="23" t="inlineStr">
+        <is>
+          <t>Andrea Vega Ospina</t>
+        </is>
+      </c>
+      <c r="B93" s="23" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C93" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D93" s="23" t="inlineStr">
+        <is>
+          <t>1380000</t>
+        </is>
+      </c>
+      <c r="E93" s="41">
+        <v>45407.7083333333</v>
+      </c>
+      <c r="F93" s="41">
+        <v>45458.5416666667</v>
+      </c>
+      <c r="G93" s="23" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H93" s="23" t="inlineStr">
+        <is>
+          <t>Banco Colpatria, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I93" s="23" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="J93" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K93" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L93" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="23" t="inlineStr">
+        <is>
+          <t>Sebastián Castillo Ramírez</t>
+        </is>
+      </c>
+      <c r="B94" s="23" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C94" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D94" s="23" t="inlineStr">
+        <is>
+          <t>1066400</t>
+        </is>
+      </c>
+      <c r="E94" s="41">
+        <v>45309.6666666667</v>
+      </c>
+      <c r="F94" s="41">
+        <v>45507.4583333333</v>
+      </c>
+      <c r="G94" s="23" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H94" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I94" s="23" t="inlineStr">
+        <is>
+          <t>Mosquera</t>
+        </is>
+      </c>
+      <c r="J94" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K94" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L94" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="23" t="inlineStr">
+        <is>
+          <t>Catalina Arango Gómez</t>
+        </is>
+      </c>
+      <c r="B95" s="23" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C95" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D95" s="23" t="inlineStr">
+        <is>
+          <t>40760000</t>
+        </is>
+      </c>
+      <c r="E95" s="41">
+        <v>45363.4583333333</v>
+      </c>
+      <c r="F95" s="41">
+        <v>45495.625</v>
+      </c>
+      <c r="G95" s="23" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H95" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Bancolombia</t>
+        </is>
+      </c>
+      <c r="I95" s="23" t="inlineStr">
+        <is>
+          <t>Chía</t>
+        </is>
+      </c>
+      <c r="J95" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K95" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L95" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="23" t="inlineStr">
+        <is>
+          <t>Camilo Gutiérrez Ruiz</t>
+        </is>
+      </c>
+      <c r="B96" s="23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C96" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D96" s="23" t="inlineStr">
+        <is>
+          <t>2050000</t>
+        </is>
+      </c>
+      <c r="E96" s="41">
+        <v>45413.625</v>
+      </c>
+      <c r="F96" s="41">
+        <v>45448.4166666667</v>
+      </c>
+      <c r="G96" s="23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H96" s="23" t="inlineStr">
+        <is>
+          <t>Banco Caja Social, Banco de Bogotá</t>
+        </is>
+      </c>
+      <c r="I96" s="23" t="inlineStr">
+        <is>
+          <t>Facatativá</t>
+        </is>
+      </c>
+      <c r="J96" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K96" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L96" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="23" t="inlineStr">
+        <is>
+          <t>Luisa Martínez Rincón</t>
+        </is>
+      </c>
+      <c r="B97" s="23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C97" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D97" s="23" t="inlineStr">
+        <is>
+          <t>1700000</t>
+        </is>
+      </c>
+      <c r="E97" s="41">
+        <v>45350.4583333333</v>
+      </c>
+      <c r="F97" s="41">
+        <v>45392.5</v>
+      </c>
+      <c r="G97" s="23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H97" s="23" t="inlineStr">
+        <is>
+          <t>Bancolombia, BBVA Colombia</t>
+        </is>
+      </c>
+      <c r="I97" s="23" t="inlineStr">
+        <is>
+          <t>Zipaquirá</t>
+        </is>
+      </c>
+      <c r="J97" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K97" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L97" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="23" t="inlineStr">
+        <is>
+          <t>Jorge Sánchez Torres</t>
+        </is>
+      </c>
+      <c r="B98" s="23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C98" s="23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" s="23" t="inlineStr">
+        <is>
+          <t>14664000</t>
+        </is>
+      </c>
+      <c r="E98" s="41">
+        <v>45381.3333333333</v>
+      </c>
+      <c r="F98" s="41">
+        <v>45478.4583333333</v>
+      </c>
+      <c r="G98" s="23" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H98" s="23" t="inlineStr">
+        <is>
+          <t>Banco Davivienda, Citibank Colombia</t>
+        </is>
+      </c>
+      <c r="I98" s="23" t="inlineStr">
+        <is>
+          <t>Sibaté</t>
+        </is>
+      </c>
+      <c r="J98" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K98" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L98" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Ocasional</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="23" t="inlineStr">
+        <is>
+          <t>Ana Montoya Vásquez</t>
+        </is>
+      </c>
+      <c r="B99" s="23" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C99" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D99" s="23" t="inlineStr">
+        <is>
+          <t>31391431</t>
+        </is>
+      </c>
+      <c r="E99" s="41">
+        <v>45327.5980899653</v>
+      </c>
+      <c r="F99" s="41">
+        <v>45640.5744788542</v>
+      </c>
+      <c r="G99" s="23" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="H99" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I99" s="23" t="inlineStr">
+        <is>
+          <t>Sopó</t>
+        </is>
+      </c>
+      <c r="J99" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K99" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L99" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="23" t="inlineStr">
+        <is>
+          <t>Daniel Jiménez Hurtado</t>
+        </is>
+      </c>
+      <c r="B100" s="23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C100" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D100" s="23" t="inlineStr">
+        <is>
+          <t>75936465</t>
+        </is>
+      </c>
+      <c r="E100" s="41">
+        <v>45321.5833333333</v>
+      </c>
+      <c r="F100" s="41">
+        <v>45651.7723908565</v>
+      </c>
+      <c r="G100" s="23" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H100" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I100" s="23" t="inlineStr">
+        <is>
+          <t>Tenjo</t>
+        </is>
+      </c>
+      <c r="J100" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K100" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L100" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="23" t="inlineStr">
+        <is>
+          <t>Nicolás Duque Restrepo</t>
+        </is>
+      </c>
+      <c r="B101" s="23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C101" s="23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D101" s="23" t="inlineStr">
+        <is>
+          <t>14838805</t>
+        </is>
+      </c>
+      <c r="E101" s="41">
+        <v>45296.4723896991</v>
+      </c>
+      <c r="F101" s="41">
+        <v>45608.8578063657</v>
+      </c>
+      <c r="G101" s="23" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="H101" s="23" t="inlineStr">
+        <is>
+          <t>Banco Agrario de Colombia, Banco Caja Social, Banco Colpatria, Banco Davivienda, Banco de Bogotá, Banco de Occidente, Bancolombia, BBVA Colombia, Citibank Colombia, Itaú CorpBanca Colombia</t>
+        </is>
+      </c>
+      <c r="I101" s="23" t="inlineStr">
+        <is>
+          <t>Guatavita</t>
+        </is>
+      </c>
+      <c r="J101" s="23" t="inlineStr">
+        <is>
+          <t>Cundinamarca</t>
+        </is>
+      </c>
+      <c r="K101" s="23" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L101" s="23" t="inlineStr">
+        <is>
+          <t>Cliente Frecuente</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/OilData.xlsx
+++ b/OilData.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Universidad\BigData\Nueva carpeta\OilSystem_SSIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\OilSystem_SSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503F98D-92FF-4FE2-B744-105FBDEDA981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A76B10-39C2-425A-BFC3-185E2EF377A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="540">
   <si>
     <t>Nombre Del Cliente</t>
   </si>
@@ -1533,6 +1536,120 @@
   </si>
   <si>
     <t>Guatavita</t>
+  </si>
+  <si>
+    <t>idTransporte</t>
+  </si>
+  <si>
+    <t>Vehiculo de transporte</t>
+  </si>
+  <si>
+    <t>Municipio de envió</t>
+  </si>
+  <si>
+    <t>Municipio de llegada</t>
+  </si>
+  <si>
+    <t>Halliburton OilTransit</t>
+  </si>
+  <si>
+    <t>Arauquita</t>
+  </si>
+  <si>
+    <t>El Zulia</t>
+  </si>
+  <si>
+    <t>Paz de Ariporo</t>
+  </si>
+  <si>
+    <t>Aguazul</t>
+  </si>
+  <si>
+    <t>Halliburton PetroFreight</t>
+  </si>
+  <si>
+    <t>Sabana de Torres</t>
+  </si>
+  <si>
+    <t>Puerto Boyacá</t>
+  </si>
+  <si>
+    <t>Acacías</t>
+  </si>
+  <si>
+    <t>Baker Hughes CrudeCarrier</t>
+  </si>
+  <si>
+    <t>Tibú</t>
+  </si>
+  <si>
+    <t>Baker Hughes OilExpress</t>
+  </si>
+  <si>
+    <t>Puerto Wilches</t>
+  </si>
+  <si>
+    <t>Saravena</t>
+  </si>
+  <si>
+    <t>Weatherford PetroTanker</t>
+  </si>
+  <si>
+    <t>Puerto Asís</t>
+  </si>
+  <si>
+    <t>Yondó</t>
+  </si>
+  <si>
+    <t>Neiva</t>
+  </si>
+  <si>
+    <t>Melgar</t>
+  </si>
+  <si>
+    <t>Weatherford CrudeMax</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>NOV OilTransporter</t>
+  </si>
+  <si>
+    <t>Tauramena</t>
+  </si>
+  <si>
+    <t>Yopal</t>
+  </si>
+  <si>
+    <t>NOV CrudeMover</t>
+  </si>
+  <si>
+    <t>Aipe</t>
+  </si>
+  <si>
+    <t>GE PetroFreighter</t>
+  </si>
+  <si>
+    <t>GE CrudeExpress</t>
+  </si>
+  <si>
+    <t>idTerreno</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Unidad de medida</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Pais</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1891,14 +2008,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2258,7 +2372,7 @@
       <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
@@ -2269,42 +2383,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2318,13 +2432,13 @@
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>336</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2338,13 +2452,13 @@
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2358,13 +2472,13 @@
       <c r="C5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2378,13 +2492,13 @@
       <c r="C6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2398,13 +2512,13 @@
       <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="16" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2418,13 +2532,13 @@
       <c r="C8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>344</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2438,13 +2552,13 @@
       <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2458,13 +2572,13 @@
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2478,13 +2592,13 @@
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2498,13 +2612,13 @@
       <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>350</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2518,13 +2632,13 @@
       <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>352</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2538,13 +2652,13 @@
       <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2558,13 +2672,13 @@
       <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>355</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2578,13 +2692,13 @@
       <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2598,13 +2712,13 @@
       <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2618,13 +2732,13 @@
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2638,13 +2752,13 @@
       <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>360</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2658,13 +2772,13 @@
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2678,13 +2792,13 @@
       <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>364</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2698,13 +2812,13 @@
       <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>367</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2718,13 +2832,13 @@
       <c r="C23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2738,13 +2852,13 @@
       <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2758,13 +2872,13 @@
       <c r="C25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2778,13 +2892,13 @@
       <c r="C26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="13" t="s">
         <v>374</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="16" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2798,13 +2912,13 @@
       <c r="C27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>77</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2818,13 +2932,13 @@
       <c r="C28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="13" t="s">
         <v>377</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2838,13 +2952,13 @@
       <c r="C29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>379</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2858,13 +2972,13 @@
       <c r="C30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2878,13 +2992,13 @@
       <c r="C31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="13" t="s">
         <v>383</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2898,13 +3012,13 @@
       <c r="C32" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2918,13 +3032,13 @@
       <c r="C33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="13" t="s">
         <v>386</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2938,13 +3052,13 @@
       <c r="C34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2958,13 +3072,13 @@
       <c r="C35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>390</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2978,13 +3092,13 @@
       <c r="C36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2998,13 +3112,13 @@
       <c r="C37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3018,13 +3132,13 @@
       <c r="C38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>392</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="16" t="s">
         <v>337</v>
       </c>
     </row>
@@ -3038,13 +3152,13 @@
       <c r="C39" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>395</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3058,13 +3172,13 @@
       <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="16" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3078,13 +3192,13 @@
       <c r="C41" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="16" t="s">
         <v>337</v>
       </c>
     </row>
@@ -3098,13 +3212,13 @@
       <c r="C42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3118,13 +3232,13 @@
       <c r="C43" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>400</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3138,13 +3252,13 @@
       <c r="C44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>403</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3158,13 +3272,13 @@
       <c r="C45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3178,13 +3292,13 @@
       <c r="C46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3198,13 +3312,13 @@
       <c r="C47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3218,13 +3332,13 @@
       <c r="C48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3238,13 +3352,13 @@
       <c r="C49" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="13" t="s">
         <v>408</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="16" t="s">
         <v>337</v>
       </c>
     </row>
@@ -3258,13 +3372,13 @@
       <c r="C50" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="13" t="s">
         <v>410</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3278,13 +3392,13 @@
       <c r="C51" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="13" t="s">
         <v>413</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3298,13 +3412,13 @@
       <c r="C52" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="13" t="s">
         <v>415</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3318,13 +3432,13 @@
       <c r="C53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="13" t="s">
         <v>417</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3338,13 +3452,13 @@
       <c r="C54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="13" t="s">
         <v>419</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3358,13 +3472,13 @@
       <c r="C55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3378,13 +3492,13 @@
       <c r="C56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3398,13 +3512,13 @@
       <c r="C57" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="13" t="s">
         <v>422</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3418,13 +3532,13 @@
       <c r="C58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="13" t="s">
         <v>424</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3438,13 +3552,13 @@
       <c r="C59" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="13" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3458,13 +3572,13 @@
       <c r="C60" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="13" t="s">
         <v>426</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3478,13 +3592,13 @@
       <c r="C61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3498,13 +3612,13 @@
       <c r="C62" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="13" t="s">
         <v>430</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="F62" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3518,13 +3632,13 @@
       <c r="C63" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3538,13 +3652,13 @@
       <c r="C64" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="13" t="s">
         <v>433</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3558,13 +3672,13 @@
       <c r="C65" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="13" t="s">
         <v>435</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F65" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3578,13 +3692,13 @@
       <c r="C66" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="13" t="s">
         <v>437</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3598,13 +3712,13 @@
       <c r="C67" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="13" t="s">
         <v>439</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="16" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3618,13 +3732,13 @@
       <c r="C68" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="13" t="s">
         <v>442</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3638,13 +3752,13 @@
       <c r="C69" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="13" t="s">
         <v>445</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F69" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3658,13 +3772,13 @@
       <c r="C70" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="13" t="s">
         <v>447</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3678,13 +3792,13 @@
       <c r="C71" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="14" t="s">
         <v>450</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3701,9 +3815,9 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
@@ -3722,40 +3836,40 @@
       <c r="A1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -3802,7 +3916,7 @@
       <c r="M2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="18" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3846,7 +3960,7 @@
       <c r="M3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="19" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3890,7 +4004,7 @@
       <c r="M4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="19" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3934,7 +4048,7 @@
       <c r="M5" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="19" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3978,7 +4092,7 @@
       <c r="M6" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="19" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4022,7 +4136,7 @@
       <c r="M7" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="19" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4066,7 +4180,7 @@
       <c r="M8" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="19" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4110,7 +4224,7 @@
       <c r="M9" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="19" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4154,7 +4268,7 @@
       <c r="M10" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="19" t="s">
         <v>316</v>
       </c>
     </row>
@@ -4198,7 +4312,7 @@
       <c r="M11" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="19" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4242,7 +4356,7 @@
       <c r="M12" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="19" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4286,7 +4400,7 @@
       <c r="M13" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="19" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4330,7 +4444,7 @@
       <c r="M14" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="19" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4374,7 +4488,7 @@
       <c r="M15" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="19" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4418,7 +4532,7 @@
       <c r="M16" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="19" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4462,7 +4576,7 @@
       <c r="M17" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="19" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4506,7 +4620,7 @@
       <c r="M18" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="19" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4550,7 +4664,7 @@
       <c r="M19" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="19" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4594,7 +4708,7 @@
       <c r="M20" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="19" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4638,7 +4752,7 @@
       <c r="M21" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="19" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4682,7 +4796,7 @@
       <c r="M22" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="19" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4726,7 +4840,7 @@
       <c r="M23" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="19" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4770,7 +4884,7 @@
       <c r="M24" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="19" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4814,7 +4928,7 @@
       <c r="M25" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="19" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4858,7 +4972,7 @@
       <c r="M26" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="19" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4902,12 +5016,12 @@
       <c r="M27" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" s="20" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4923,7 +5037,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4939,7 +5053,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4955,7 +5069,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4971,7 +5085,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4987,7 +5101,7 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5003,7 +5117,7 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5027,822 +5141,1650 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2273B5C9-9AFA-4129-931D-F16E7716CF8B}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.5703125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="37" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="31">
         <v>45306.666666666664</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>45371.666666666664</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="32" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>45418.708333333336</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="21">
         <v>45555.583333333336</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>45331.583333333336</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <v>45518.416666666664</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>45398.541666666664</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>45465.666666666664</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>45366.708333333336</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>45491.583333333336</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>45435.666666666664</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <v>45543.333333333336</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>45390.416666666664</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="21">
         <v>45470.416666666664</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>45376.541666666664</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="21">
         <v>45482.708333333336</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>45313.416666666664</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="21">
         <v>45577.708333333336</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>45423.625</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <v>45553.333333333336</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>45329.5</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>45532.375</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>45407.708333333336</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <v>45458.541666666664</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>45309.666666666664</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <v>45507.458333333336</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <v>45363.458333333336</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="21">
         <v>45495.625</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>45413.625</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="21">
         <v>45448.416666666664</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>45350.458333333336</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="21">
         <v>45392.5</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>45381.333333333336</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="21">
         <v>45478.458333333336</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>45327.598090277781</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="21">
         <v>45640.574479166666</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="24" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>45321.583333333336</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="21">
         <v>45651.77239583333</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="24" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="27">
         <v>45296.472384259258</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="27">
         <v>45608.857800925929</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="28" t="s">
         <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218252E2-01A5-4D89-BADF-45DFA315CB13}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D9E4C8-267E-42C2-9C55-BA652F28092D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{C7C78BFF-B865-4DBC-B92B-AA71B30C8230}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row spans="1:6" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="20" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="C2" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t>Saravena</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t>Arauca</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="20" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
+        <is>
+          <t>Barrancabermeja</t>
+        </is>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D4" s="20" t="inlineStr">
+        <is>
+          <t>Sabana de Torres</t>
+        </is>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="inlineStr">
+        <is>
+          <t>Puerto Wilches</t>
+        </is>
+      </c>
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
+        <is>
+          <t>Orito</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t>Putumayo</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>Puerto Asís</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>Putumayo</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>85000</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>Valle del Guamuez</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>Putumayo</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>Huila</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>Aipe</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>Huila</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t>km²</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
       </c>
     </row>
   </sheetData>
